--- a/biology/Médecine/Claude_Couinaud/Claude_Couinaud.xlsx
+++ b/biology/Médecine/Claude_Couinaud/Claude_Couinaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claude Couinaud (16 février 1922 à Neuilly-sur-Seine - 4 mai 2008 à Boulogne-Billancourt[1]) est un chirurgien et anatomiste français ayant grandement contribué à la chirurgie hépato-biliaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claude Couinaud (16 février 1922 à Neuilly-sur-Seine - 4 mai 2008 à Boulogne-Billancourt) est un chirurgien et anatomiste français ayant grandement contribué à la chirurgie hépato-biliaire.
 Il est particulièrement connu pour ses études anatomiques détaillées du foie, et est le premier à avoir décrit son anatomie segmentaire, ce qui a permis le développement de l’hépatectomie.
-Son livre Le Foie : Études anatomiques et chirurgicales[2] est à la base de l’anatomie et des méthodes de chirurgie hépato-biliaire du XXe siècle.
+Son livre Le Foie : Études anatomiques et chirurgicales est à la base de l’anatomie et des méthodes de chirurgie hépato-biliaire du XXe siècle.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Claude Couinaud, Le Foie : Études anatomiques et chirurgicales, Masson, 1957.
 Anatomie chirurgicale revisitée du foie, 1989.[source insuffisante]
